--- a/DuThau/20200880312-DLLK-CayDa/20200880312-DuThaux.xlsx
+++ b/DuThau/20200880312-DLLK-CayDa/20200880312-DuThaux.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ThucTran\HSTT\DuThau\20200880312-DLLK-CayDa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93086E5F-110F-4396-A02F-FFFE8C7E046E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$Q$53</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>Thứ tự công việc</t>
   </si>
@@ -300,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,22 +395,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,9 +484,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,6 +536,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,28 +728,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="C1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="48.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="12" width="9.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.85546875" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="38" style="2" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="48.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="2" customWidth="1"/>
+    <col min="8" max="12" width="9.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="43.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="19.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="12.77734375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.109375" style="2" collapsed="1"/>
+    <col min="19" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
@@ -732,8 +775,17 @@
       <c r="Q1" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -760,8 +812,11 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -770,8 +825,11 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -783,8 +841,11 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>1</v>
       </c>
@@ -799,8 +860,11 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>11</v>
       </c>
@@ -809,15 +873,21 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <f>IF(G8&lt;&gt;0,COUNTIF($F$1:F8,F8),0)</f>
         <v>1</v>
@@ -856,8 +926,17 @@
         <v>85</v>
       </c>
       <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="7" t="str">
+        <f>H8</f>
+        <v xml:space="preserve"> m </v>
+      </c>
+      <c r="S8" s="7" t="str">
+        <f>I8</f>
+        <v>297,0</v>
+      </c>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f>IF(G9&lt;&gt;0,COUNTIF($F$1:F9,F9),0)</f>
         <v>1</v>
@@ -896,8 +975,17 @@
         <v>84</v>
       </c>
       <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="7" t="str">
+        <f t="shared" ref="R9:R40" si="1">H9</f>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" ref="S9:S40" si="2">I9</f>
+        <v>33</v>
+      </c>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f>IF(G10&lt;&gt;0,COUNTIF($F$1:F10,F10),0)</f>
         <v>1</v>
@@ -936,8 +1024,17 @@
         <v>84</v>
       </c>
       <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <f>IF(G11&lt;&gt;0,COUNTIF($F$1:F11,F11),0)</f>
         <v>1</v>
@@ -976,8 +1073,17 @@
         <v>84</v>
       </c>
       <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <f>IF(G12&lt;&gt;0,COUNTIF($F$1:F12,F12),0)</f>
         <v>1</v>
@@ -1016,8 +1122,17 @@
         <v>84</v>
       </c>
       <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="3:20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>IF(G13&lt;&gt;0,COUNTIF($F$1:F13,F13),0)</f>
         <v>0</v>
@@ -1049,8 +1164,17 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> bộ </v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="3:20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>IF(G14&lt;&gt;0,COUNTIF($F$1:F14,F14),0)</f>
         <v>2</v>
@@ -1089,8 +1213,17 @@
         <v>85</v>
       </c>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> m </v>
+      </c>
+      <c r="S14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>27,0</v>
+      </c>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="3:20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>IF(G15&lt;&gt;0,COUNTIF($F$1:F15,F15),0)</f>
         <v>2</v>
@@ -1129,8 +1262,17 @@
         <v>84</v>
       </c>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <f>IF(G16&lt;&gt;0,COUNTIF($F$1:F16,F16),0)</f>
         <v>1</v>
@@ -1169,8 +1311,17 @@
         <v>84</v>
       </c>
       <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="3:20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>IF(G17&lt;&gt;0,COUNTIF($F$1:F17,F17),0)</f>
         <v>2</v>
@@ -1209,8 +1360,17 @@
         <v>84</v>
       </c>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <f>IF(G18&lt;&gt;0,COUNTIF($F$1:F18,F18),0)</f>
         <v>1</v>
@@ -1249,8 +1409,17 @@
         <v>84</v>
       </c>
       <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="3:20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>IF(G19&lt;&gt;0,COUNTIF($F$1:F19,F19),0)</f>
         <v>0</v>
@@ -1276,8 +1445,17 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <f>IF(G20&lt;&gt;0,COUNTIF($F$1:F20,F20),0)</f>
         <v>1</v>
@@ -1316,8 +1494,17 @@
         <v>85</v>
       </c>
       <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> m </v>
+      </c>
+      <c r="S20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>8.971,5</v>
+      </c>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <f>IF(G21&lt;&gt;0,COUNTIF($F$1:F21,F21),0)</f>
         <v>1</v>
@@ -1356,8 +1543,17 @@
         <v>85</v>
       </c>
       <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> m </v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <f>IF(G22&lt;&gt;0,COUNTIF($F$1:F22,F22),0)</f>
         <v>1</v>
@@ -1396,8 +1592,17 @@
         <v>85</v>
       </c>
       <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> m </v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="2">
         <f>IF(G23&lt;&gt;0,COUNTIF($F$1:F23,F23),0)</f>
         <v>1</v>
@@ -1436,8 +1641,17 @@
         <v>85</v>
       </c>
       <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> m </v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <f>IF(G24&lt;&gt;0,COUNTIF($F$1:F24,F24),0)</f>
         <v>1</v>
@@ -1476,8 +1690,17 @@
         <v>84</v>
       </c>
       <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <f>IF(G25&lt;&gt;0,COUNTIF($F$1:F25,F25),0)</f>
         <v>1</v>
@@ -1516,8 +1739,17 @@
         <v>84</v>
       </c>
       <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <f>IF(G26&lt;&gt;0,COUNTIF($F$1:F26,F26),0)</f>
         <v>1</v>
@@ -1556,8 +1788,17 @@
         <v>84</v>
       </c>
       <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <f>IF(G27&lt;&gt;0,COUNTIF($F$1:F27,F27),0)</f>
         <v>1</v>
@@ -1596,8 +1837,17 @@
         <v>84</v>
       </c>
       <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S27" s="7">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" s="2">
         <f>IF(G28&lt;&gt;0,COUNTIF($F$1:F28,F28),0)</f>
         <v>1</v>
@@ -1636,8 +1886,17 @@
         <v>84</v>
       </c>
       <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="2">
         <f>IF(G29&lt;&gt;0,COUNTIF($F$1:F29,F29),0)</f>
         <v>1</v>
@@ -1676,8 +1935,17 @@
         <v>84</v>
       </c>
       <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S29" s="7">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" s="2">
         <f>IF(G30&lt;&gt;0,COUNTIF($F$1:F30,F30),0)</f>
         <v>1</v>
@@ -1716,8 +1984,17 @@
         <v>82</v>
       </c>
       <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> hộp </v>
+      </c>
+      <c r="S30" s="7">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <f>IF(G31&lt;&gt;0,COUNTIF($F$1:F31,F31),0)</f>
         <v>1</v>
@@ -1756,8 +2033,17 @@
         <v>84</v>
       </c>
       <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S31" s="7">
+        <f t="shared" si="2"/>
+        <v>976</v>
+      </c>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32" s="2">
         <f>IF(G32&lt;&gt;0,COUNTIF($F$1:F32,F32),0)</f>
         <v>1</v>
@@ -1796,8 +2082,17 @@
         <v>84</v>
       </c>
       <c r="Q32" s="7"/>
-    </row>
-    <row r="33" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S32" s="7">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <f>IF(G33&lt;&gt;0,COUNTIF($F$1:F33,F33),0)</f>
         <v>1</v>
@@ -1836,8 +2131,17 @@
         <v>84</v>
       </c>
       <c r="Q33" s="7"/>
-    </row>
-    <row r="34" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" s="2">
         <f>IF(G34&lt;&gt;0,COUNTIF($F$1:F34,F34),0)</f>
         <v>1</v>
@@ -1876,8 +2180,17 @@
         <v>84</v>
       </c>
       <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S34" s="7">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" s="2">
         <f>IF(G35&lt;&gt;0,COUNTIF($F$1:F35,F35),0)</f>
         <v>1</v>
@@ -1916,8 +2229,17 @@
         <v>84</v>
       </c>
       <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" s="2">
         <f>IF(G36&lt;&gt;0,COUNTIF($F$1:F36,F36),0)</f>
         <v>1</v>
@@ -1956,8 +2278,17 @@
         <v>84</v>
       </c>
       <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S36" s="7">
+        <f t="shared" si="2"/>
+        <v>1.302</v>
+      </c>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" s="2">
         <f>IF(G37&lt;&gt;0,COUNTIF($F$1:F37,F37),0)</f>
         <v>1</v>
@@ -1996,8 +2327,17 @@
         <v>84</v>
       </c>
       <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S37" s="7">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <f>IF(G38&lt;&gt;0,COUNTIF($F$1:F38,F38),0)</f>
         <v>1</v>
@@ -2036,8 +2376,17 @@
         <v>84</v>
       </c>
       <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cuộn </v>
+      </c>
+      <c r="S38" s="7">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <f>IF(G39&lt;&gt;0,COUNTIF($F$1:F39,F39),0)</f>
         <v>1</v>
@@ -2076,8 +2425,17 @@
         <v>84</v>
       </c>
       <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="3:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> chai </v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <f>IF(G40&lt;&gt;0,COUNTIF($F$1:F40,F40),0)</f>
         <v>1</v>
@@ -2116,8 +2474,17 @@
         <v>84</v>
       </c>
       <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> cái </v>
+      </c>
+      <c r="S40" s="7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>IF(G41&lt;&gt;0,COUNTIF($F$1:F41,F41),0)</f>
         <v>0</v>
@@ -2132,16 +2499,22 @@
         <f>IF(G41&lt;&gt;0,COUNTIF($F$1:F41,F41),0)</f>
         <v>0</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="5">
         <f>COUNTIF($C$1:C41,1)</f>
         <v>28</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N41" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>IF(G42&lt;&gt;0,COUNTIF($F$1:F42,F42),0)</f>
         <v>0</v>
@@ -2162,16 +2535,22 @@
         <f>IF(G42&lt;&gt;0,COUNTIF($F$1:F42,F42),0)</f>
         <v>0</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="5">
         <f>COUNTIF($C$1:C42,1)</f>
         <v>28</v>
       </c>
-      <c r="N42" t="str">
+      <c r="N42" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>IF(G43&lt;&gt;0,COUNTIF($F$1:F43,F43),0)</f>
         <v>0</v>
@@ -2192,16 +2571,22 @@
         <f>IF(G43&lt;&gt;0,COUNTIF($F$1:F43,F43),0)</f>
         <v>0</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="5">
         <f>COUNTIF($C$1:C43,1)</f>
         <v>28</v>
       </c>
-      <c r="N43" t="str">
+      <c r="N43" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>IF(G44&lt;&gt;0,COUNTIF($F$1:F44,F44),0)</f>
         <v>0</v>
@@ -2222,16 +2607,22 @@
         <f>IF(G44&lt;&gt;0,COUNTIF($F$1:F44,F44),0)</f>
         <v>0</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="5">
         <f>COUNTIF($C$1:C44,1)</f>
         <v>28</v>
       </c>
-      <c r="N44" t="str">
+      <c r="N44" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>IF(G45&lt;&gt;0,COUNTIF($F$1:F45,F45),0)</f>
         <v>0</v>
@@ -2252,16 +2643,22 @@
         <f>IF(G45&lt;&gt;0,COUNTIF($F$1:F45,F45),0)</f>
         <v>0</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="5">
         <f>COUNTIF($C$1:C45,1)</f>
         <v>28</v>
       </c>
-      <c r="N45" t="str">
+      <c r="N45" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>IF(G46&lt;&gt;0,COUNTIF($F$1:F46,F46),0)</f>
         <v>0</v>
@@ -2282,16 +2679,22 @@
         <f>IF(G46&lt;&gt;0,COUNTIF($F$1:F46,F46),0)</f>
         <v>0</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="5">
         <f>COUNTIF($C$1:C46,1)</f>
         <v>28</v>
       </c>
-      <c r="N46" t="str">
+      <c r="N46" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C47">
         <f>IF(G47&lt;&gt;0,COUNTIF($F$1:F47,F47),0)</f>
         <v>0</v>
@@ -2312,16 +2715,22 @@
         <f>IF(G47&lt;&gt;0,COUNTIF($F$1:F47,F47),0)</f>
         <v>0</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="5">
         <f>COUNTIF($C$1:C47,1)</f>
         <v>28</v>
       </c>
-      <c r="N47" t="str">
+      <c r="N47" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="3:17" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C48">
         <f>IF(G48&lt;&gt;0,COUNTIF($F$1:F48,F48),0)</f>
         <v>0</v>
@@ -2342,16 +2751,22 @@
         <f>IF(G48&lt;&gt;0,COUNTIF($F$1:F48,F48),0)</f>
         <v>0</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="5">
         <f>COUNTIF($C$1:C48,1)</f>
         <v>28</v>
       </c>
-      <c r="N48" t="str">
+      <c r="N48" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="3:14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C49">
         <f>IF(G49&lt;&gt;0,COUNTIF($F$1:F49,F49),0)</f>
         <v>0</v>
@@ -2372,16 +2787,22 @@
         <f>IF(G49&lt;&gt;0,COUNTIF($F$1:F49,F49),0)</f>
         <v>0</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="5">
         <f>COUNTIF($C$1:C49,1)</f>
         <v>28</v>
       </c>
-      <c r="N49" t="str">
+      <c r="N49" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="3:14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C50">
         <f>IF(G50&lt;&gt;0,COUNTIF($F$1:F50,F50),0)</f>
         <v>0</v>
@@ -2402,16 +2823,22 @@
         <f>IF(G50&lt;&gt;0,COUNTIF($F$1:F50,F50),0)</f>
         <v>0</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="5">
         <f>COUNTIF($C$1:C50,1)</f>
         <v>28</v>
       </c>
-      <c r="N50" t="str">
+      <c r="N50" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="3:14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C51">
         <f>IF(G51&lt;&gt;0,COUNTIF($F$1:F51,F51),0)</f>
         <v>0</v>
@@ -2432,16 +2859,22 @@
         <f>IF(G51&lt;&gt;0,COUNTIF($F$1:F51,F51),0)</f>
         <v>0</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="5">
         <f>COUNTIF($C$1:C51,1)</f>
         <v>28</v>
       </c>
-      <c r="N51" t="str">
+      <c r="N51" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="3:14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C52">
         <f>IF(G52&lt;&gt;0,COUNTIF($F$1:F52,F52),0)</f>
         <v>0</v>
@@ -2462,16 +2895,22 @@
         <f>IF(G52&lt;&gt;0,COUNTIF($F$1:F52,F52),0)</f>
         <v>0</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="5">
         <f>COUNTIF($C$1:C52,1)</f>
         <v>28</v>
       </c>
-      <c r="N52" t="str">
+      <c r="N52" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="3:14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="3:20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C53">
         <f>IF(G53&lt;&gt;0,COUNTIF($F$1:F53,F53),0)</f>
         <v>0</v>
@@ -2492,47 +2931,57 @@
         <f>IF(G53&lt;&gt;0,COUNTIF($F$1:F53,F53),0)</f>
         <v>0</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="5">
         <f>COUNTIF($C$1:C53,1)</f>
         <v>28</v>
       </c>
-      <c r="N53" t="str">
+      <c r="N53" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="M54" s="6"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q53">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:Q53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
